--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Shinyanga_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Shinyanga_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="1660" windowWidth="17520" windowHeight="14260" tabRatio="500" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="17520" windowHeight="14260" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2917,12 +2912,12 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>372869.95914030378</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2941,7 @@
         <v>81189.974130296381</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2949,7 @@
         <v>95462.073360530194</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2962,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2970,7 +2965,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2982,6 +2977,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2993,12 +2993,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3604,6 +3604,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3615,13 +3620,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3638,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3662,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3676,7 +3681,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3695,7 +3700,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3714,7 +3719,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3752,7 +3757,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3790,113 +3795,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3908,9 +3918,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3940,6 +3950,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3949,12 +3964,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3994,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4034,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4056,6 +4071,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4067,9 +4087,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4089,7 +4109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4111,6 +4131,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4122,9 +4147,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4154,6 +4179,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4165,12 +4195,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4190,7 +4220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4210,7 +4240,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4218,7 +4248,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4226,7 +4256,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4237,6 +4267,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4246,12 +4281,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4291,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4311,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4331,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4353,6 +4388,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4362,13 +4402,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4388,7 +4428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4410,6 +4450,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4419,12 +4464,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4441,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4458,14 +4503,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4474,6 +4519,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4485,13 +4535,13 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4499,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4507,7 +4557,7 @@
         <v>82758.842000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4515,7 +4565,7 @@
         <v>84327.73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4523,7 +4573,7 @@
         <v>86288.84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4531,7 +4581,7 @@
         <v>87857.728000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4539,7 +4589,7 @@
         <v>89426.615999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4547,7 +4597,7 @@
         <v>91387.725999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4555,7 +4605,7 @@
         <v>93348.835999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4563,7 +4613,7 @@
         <v>94917.724000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4571,7 +4621,7 @@
         <v>97271.055999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4579,7 +4629,7 @@
         <v>99232.165999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4587,7 +4637,7 @@
         <v>101193.276</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>103154.386</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4603,7 +4653,7 @@
         <v>105507.71799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4613,6 +4663,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4620,11 +4675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4632,7 +4687,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4646,7 +4701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4663,7 +4718,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4680,7 +4735,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4694,7 +4749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4711,7 +4766,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4728,12 +4783,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>0.28347008472009322</v>
       </c>
       <c r="C7" s="36">
         <v>0.95</v>
@@ -4745,72 +4800,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4818,6 +4873,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4825,9 +4885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4837,7 +4897,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4862,7 +4922,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4885,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4910,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4934,7 +4994,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4957,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4980,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5003,65 +5063,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5069,6 +5129,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5080,12 +5145,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5105,7 +5170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5125,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5144,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5164,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5181,14 +5246,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5198,6 +5263,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5209,12 +5279,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5237,7 +5307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5260,7 +5330,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5280,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5303,7 +5373,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5327,6 +5397,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5338,12 +5413,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5366,7 +5441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5389,7 +5464,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5409,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5435,7 +5510,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5459,6 +5534,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5470,12 +5550,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5498,7 +5578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5521,7 +5601,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5541,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5567,7 +5647,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5591,6 +5671,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5602,9 +5687,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5615,7 +5700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>24</v>
       </c>
@@ -5630,6 +5715,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5641,12 +5731,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5666,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5686,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5706,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5726,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5746,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5766,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5786,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5806,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5826,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5846,7 +5936,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5866,7 +5956,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5886,7 +5976,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5906,7 +5996,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5926,7 +6016,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5946,7 +6036,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5966,7 +6056,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5986,7 +6076,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6013,6 +6103,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6024,9 +6119,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6049,7 +6144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6077,7 +6172,7 @@
         <v>30.015599490072177</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6102,7 +6197,7 @@
         <v>38.282394695974332</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6122,7 +6217,7 @@
         <v>23.781749403697084</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6142,7 +6237,7 @@
         <v>7.9202564102564113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6165,7 +6260,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6185,7 +6280,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6205,7 +6300,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6225,7 +6320,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6249,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6269,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6289,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6317,6 +6412,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6328,9 +6428,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6341,7 +6441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>1.4816279069767443E-2</v>
       </c>
@@ -6354,6 +6454,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6365,9 +6470,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6387,7 +6492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6407,7 +6512,7 @@
         <v>1.9895974576271189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6431,6 +6536,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6440,9 +6550,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6465,7 +6575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6488,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6508,7 +6618,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6528,7 +6638,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6548,7 +6658,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6571,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6591,7 +6701,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6611,7 +6721,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6631,7 +6741,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6654,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6694,7 +6804,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6714,7 +6824,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6737,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6757,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6777,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6820,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6840,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6860,7 +6970,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6882,6 +6992,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6891,9 +7006,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +7031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6939,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6959,7 +7074,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6979,7 +7094,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6999,7 +7114,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7022,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7042,7 +7157,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7062,7 +7177,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7082,7 +7197,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7105,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7125,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7145,7 +7260,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7165,7 +7280,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7188,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7208,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7228,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7248,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7271,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7291,7 +7406,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7426,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7333,5 +7448,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>